--- a/Clase_3_ws/noticias_scraping_infobae.xlsx
+++ b/Clase_3_ws/noticias_scraping_infobae.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t xml:space="preserve">titulo</t>
   </si>
@@ -44,6 +44,18 @@
     <t xml:space="preserve">https://www.infobae.com/america/agencias/2024/07/05/cloudflare-lanza-una-funcion-para-impedir-que-los-bots-de-empresas-de-ia-ejecuten-web-scraping-en-webs-de-sus-clientes/</t>
   </si>
   <si>
+    <t xml:space="preserve">Cloudflare bloquea rastreadores de IA por defecto y propone cobrar por el acceso a contenido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El scraping de datos en internet se ha convertido en un tema central, tanto para el avance de la inteligencia artificial como para la protección de los derechos de los editores de contenidos. Las herramientas automáticas que rastrean y recopilan información en la web cumplen funciones esenciales, como nutrir motores de búsqueda o contribuir a la preservación digital, pero su uso masivo por parte de empresas de IA está generando nuevos desafíos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02 Jul, 2025 06:42 p.m. EST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.infobae.com/tecno/2025/07/02/cloudflare-bloquea-rastreadores-de-ia-por-defecto-y-propone-cobrar-por-el-acceso-a-contenido/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reddit bloqueará el acceso de bots a sus datos públicos para evitar el 'web scraping' para el entrenamiento de IA</t>
   </si>
   <si>
@@ -56,6 +68,66 @@
     <t xml:space="preserve">https://www.infobae.com/america/agencias/2024/06/27/reddit-bloqueara-el-acceso-de-bots-a-sus-datos-publicos-para-evitar-el-web-scraping-para-el-entrenamiento-de-ia/</t>
   </si>
   <si>
+    <t xml:space="preserve">Se mantuvo la desaceleración de precios de alimentos en la tercera semana de julio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durante la tercera semana de julio, el precio de los alimentos y bebidas mostró un incremento promedio de 0,1%, según el relevamiento semanal difundido por LCG. El dato consolidó la tendencia de desaceleración observada desde el comienzo del mes. La semana previa, el aumento había sido del 0,3%. De esta manera, el acumulado en lo que va del mes trepó al 1,1%, mientras que la inflación promedio de las últimas cuatro semanas se ubicó en 1,6% mensual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 Jul, 2025 11:48 a.m. EST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.infobae.com/economia/2025/07/18/se-mantuvo-la-desaceleracion-de-precios-de-alimentos-en-la-tercera-semana-de-julio/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryanair denuncia a eDreams por realizar sobrecargos y reservas sin autorización</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryanair ha denunciado este jueves a eDreams por cobrar de más a los consumidores y por proporcionar deliberadamente a Ryanair direcciones de correo electrónico y direcciones postales falsas, además de utilizar datos de pago chinos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01 May, 2025 05:30 a.m. EST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.infobae.com/america/agencias/2025/05/01/ryanair-denuncia-a-edreams-por-realizar-sobrecargos-y-reservas-sin-autorizacion/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italia pide información a 'DeepSeek' por su "posible riesgo para millones de personas"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">29 Abr, 2025 04:17 p.m. EST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.infobae.com/america/agencias/2025/01/29/italia-pide-informacion-a-deepseek-por-su-posible-riesgo-para-millones-de-personas/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italia bloquea la aplicación china 'DeepSeek' por falta de información</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01 May, 2025 08:34 a.m. EST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.infobae.com/america/agencias/2025/01/30/italia-bloquea-la-aplicacion-china-deepseek-por-falta-de-informacion/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estos sitios web que usas a diario podrían robar tus datos y vaciar tus cuentas, dice el FBI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La oficina del FBI en Denver emitió una advertencia pública sobre una nueva modalidad de estafa digital que utiliza sitios web de conversión de archivos para distribuir malware, instalar ransomware y robar información personal sensible. Según el comunicado difundido el 7 de marzo de 2025, los ciberdelincuentes están explotando herramientas en apariencia legítimas que ofrecen servicios gratuitos como convertir archivos .pdf, .doc, .jpg, .mp3 o .mp4, combinarlos o descargarlos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 Mar, 2025 09:52 a.m. EST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniela Mérida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.infobae.com/estados-unidos/2025/03/23/estos-sitios-web-que-usas-a-diario-podrian-robar-tus-datos-y-vaciar-tus-cuentas-dice-el-fbi/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Los datos de 235 millones de usuarios de YouTube, Instagram y Tik Tok quedaron expuestos en la web</t>
   </si>
   <si>
@@ -68,6 +140,18 @@
     <t xml:space="preserve">https://www.infobae.com/america/tecno/2020/08/21/los-datos-de-235-millones-de-usuarios-de-youtube-instagram-y-tik-tok-quedaron-expuestos-en-la-web/</t>
   </si>
   <si>
+    <t xml:space="preserve">Canceladas 6.771 viviendas turísticas desde 2024 tras la regulación del sector andaluz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sevilla, 21 mar (EFECOM).- La Consejería de Turismo y Andalucía Exterior ha cancelado un total de 6.771 viviendas de uso turístico (VUT) desde 2024 tras las medidas de "control, regulación y ordenación" impulsadas por la administración autonómica en coordinación con los ayuntamientos andaluces.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 Mar, 2025 06:48 a.m. EST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.infobae.com/espana/agencias/2025/03/21/canceladas-6771-viviendas-turisticas-desde-2024-tras-la-regulacion-del-sector-andaluz/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Por una brecha de seguridad en Linkedin, la Superintendencia le pidió a la red reforzar la protección de sus usuarios en Colombia</t>
   </si>
   <si>
@@ -83,15 +167,24 @@
     <t xml:space="preserve">Irlanda multa a Meta con 265 millones de euros por error protección de datos</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
     <t xml:space="preserve">28 Nov, 2022 09:31 a.m. EST</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.infobae.com/america/agencias/2022/11/28/irlanda-multa-a-meta-con-265-millones-de-euros-por-error-proteccion-de-datos/</t>
   </si>
   <si>
+    <t xml:space="preserve">Meta podría recompensarlo por encontrar errores en su sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La compañía de Zuckerberg está actualizando su programa de recompensas por errores, por tal motivo, busca entregar bonificaciones a los investigadores que le informen sobre casos de ‘web scraping’ o raspado de datos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 Dic, 2021 05:30 p.m. EST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.infobae.com/america/tecno/2021/12/15/meta-podria-recompensarlo-por-encontrar-errores-en-su-sistema/</t>
+  </si>
+  <si>
     <t xml:space="preserve">La lista secreta de sitios web que hacen que una IA como ChatGPT parezca inteligente</t>
   </si>
   <si>
@@ -107,18 +200,6 @@
     <t xml:space="preserve">https://www.infobae.com/wapo/2023/04/19/la-lista-secreta-de-sitios-web-que-hacen-que-una-ia-como-chatgpt-parezca-inteligente/</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta podría recompensarlo por encontrar errores en su sistema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La compañía de Zuckerberg está actualizando su programa de recompensas por errores, por tal motivo, busca entregar bonificaciones a los investigadores que le informen sobre casos de ‘web scraping’ o raspado de datos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 Dic, 2021 05:30 p.m. EST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.infobae.com/america/tecno/2021/12/15/meta-podria-recompensarlo-por-encontrar-errores-en-su-sistema/</t>
-  </si>
-  <si>
     <t xml:space="preserve">La trama detrás de los perfiles falsos de bancos en Instagram para cometer fraudes: premiaron una investigación de Infobae</t>
   </si>
   <si>
@@ -197,6 +278,54 @@
     <t xml:space="preserve">https://www.infobae.com/america/agencias/2020/08/21/portaltic-una-compania-expone-datos-sobre-235-millones-de-usuarios-de-instagram-tiktok-y-youtube/</t>
   </si>
   <si>
+    <t xml:space="preserve">Ryanair demanda a eDreams por aplicar sobrecargos y realizar reservas sin autorización</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aerolínea irlandesa Ryanair ha denunciado este jueves a la plataforma de venta de billetes de vuelos eDreams por cobrar sobrecargos a los consumidores que compran sus vuelos, así como proporcionarles direcciones de correo electrónico y direcciones postales falsas, además de utilizar datos de pago chinos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01 May, 2025 07:38 a.m. EST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.infobae.com/espana/2025/05/01/ryanair-demanda-a-edreams-por-aplicar-sobrecargos-y-realizar-reservas-sin-autorizacion/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los creadores de YouTube podrán permitir el uso de sus vídeos para entrenar modelos de IA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YouTube permitirá a los creadores optar por permitir que terceros utilicen el contenido que publican en la plataforma de vídeo para entrenar modelos de inteligencia artificial con el fin de ayudarles a "obtener un nuevo valor".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08 Mar, 2025 04:17 p.m. EST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.infobae.com/america/agencias/2024/12/17/los-creadores-de-youtube-podran-permitir-el-uso-de-sus-videos-para-entrenar-modelos-de-ia/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premios Oscar 2025: cuál será la mejor película según predicciones y análisis con IA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A medida que se acerca la ceremonia de los Premios Oscar 2025, las expectativas sobre quién se llevará las codiciadas estatuillas aumentan y la inteligencia artificial no se quedó sin hacer un pronóstico sobre la película que se llevará el protagonismo durante ceremonia que se celebra el próximo 2 de marzo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 Feb, 2025 08:56 p.m. EST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.infobae.com/tecno/2025/03/01/premios-oscar-2025-cual-sera-la-mejor-pelicula-segun-predicciones-y-analisis-con-ia/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Según un estudio privado, los precios de los alimentos bajaron 0,1% en la última semana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tras darse a conocer el resultado de inflación más bajo desde julio de 2020, los precios de los productos de primera necesidad parecen seguir una tendencia decreciente. Según un informe desarrollado por la consultora LCG, el valor promedio de los alimentos y bebidas bajó 0,1% en la última semana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 Feb, 2025 11:58 p.m. EST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.infobae.com/economia/2025/02/17/segun-un-estudio-privado-los-precios-de-los-alimentos-bajaron-01-en-la-ultima-semana/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Los supermercados se resisten a entregar datos de alimentos al INE para calcular el IPC: solo Alcampo y Carrefour colaboran</t>
   </si>
   <si>
@@ -224,6 +353,27 @@
     <t xml:space="preserve">https://www.infobae.com/wapo/2024/06/06/los-artistas-huyen-de-instagram-para-mantener-su-trabajo-a-salvo-de-la-ia-de-meta/</t>
   </si>
   <si>
+    <t xml:space="preserve">‘No a las máquinas que cosechan contenido’: estallan revueltas de datos contra la IA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 Jul, 2023 03:30 p.m. EST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.infobae.com/thenewyorktimes/2023/07/16/no-a-las-maquinas-que-cosechan-contenido-estallan-revueltas-de-datos-contra-la-ia/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durante más de 20 años, Kit Loffstadt ha escrito historias de fanficción que exploran universos alternativos para los héroes de “La guerra de las galaxias” y los villanos de “Buffy, la cazavampiros”, y comparte sus historias de manera gratuita en línea.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 Jul, 2023 01:25 p.m. EST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheera Frenkel and Stuart A. Thompson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.infobae.com/america/the-new-york-times/2023/07/24/no-a-las-maquinas-que-cosechan-contenido-estallan-revueltas-de-datos-contra-la-ia/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Venta masiva de datos privados de Discord: Más de 627 mil millones de usuarios afectados</t>
   </si>
   <si>
@@ -246,93 +396,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.infobae.com/tecno/2024/03/20/estas-son-las-cuatro-tecnicas-mas-usadas-para-robar-claves-bancarias/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‘No a las máquinas que cosechan contenido’: estallan revueltas de datos contra la IA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 Jul, 2023 03:30 p.m. EST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.infobae.com/thenewyorktimes/2023/07/16/no-a-las-maquinas-que-cosechan-contenido-estallan-revueltas-de-datos-contra-la-ia/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durante más de 20 años, Kit Loffstadt ha escrito historias de fanficción que exploran universos alternativos para los héroes de “La guerra de las galaxias” y los villanos de “Buffy, la cazavampiros”, y comparte sus historias de manera gratuita en línea.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 Jul, 2023 01:25 p.m. EST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheera Frenkel and Stuart A. Thompson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.infobae.com/america/the-new-york-times/2023/07/24/no-a-las-maquinas-que-cosechan-contenido-estallan-revueltas-de-datos-contra-la-ia/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿No puede ver tuits en México? Elon Musk restringió límite de visualizaciones en la red social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El pasado viernes, la red social Twitter presentó fallas en México y otras partes del mundo. Y es que, algunos usuarios, comenzaron a explicar que el problema había surgido desde la madrugada en la versión de escritorio de la plataforma.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01 Jul, 2023 03:36 p.m. EST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miguel Flores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.infobae.com/mexico/2023/07/01/no-puede-ver-tuits-en-mexico-elon-musk-restringio-limite-de-visualizaciones-en-la-red-social/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se filtró una base de datos de casi 300 millones de usuarios de Facebook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Una base de datos que contiene más de 267 millones de ID de usuarios de Facebook, números de teléfono y nombres quedó expuesta en la web. El dato fue revelado por el sitio especializado Comparitech en base a una investigación realizada por el experto en seguridad Bob Diachenko.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 Dic, 2019 08:03 a.m. EST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.infobae.com/america/tecno/2019/12/20/se-filtro-una-base-de-datos-de-casi-300-millones-de-usuarios-de-facebook/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cómo funciona la insólita estafa virtual que comienza con un falso e-mail de Kristalina Georgieva, la jefa del FMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Una estafa en la que se invoca en forma engañosa a la jefa del Fondo Monetario Internacional (FMI), Kristalina Georgieva, ha llegado a correos electrónicos de personas en todo el mundo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 Jun, 2022 04:14 p.m. EST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.infobae.com/economia/2022/06/23/como-funciona-la-insolita-estafa-virtual-que-comienza-con-un-falso-e-mail-de-kristalina-georgieva-la-jefa-del-fmi/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big data y pandemias: el punto de cruce entre tecnología y política sanitaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Las mejores novelas futuristas del siglo pasado imaginaron un porvenir metálico, lleno de pantallas y altas velocidades de desplazamiento. Imaginaban armas de destrucción masiva, naves espaciales, computadoras que ocupaban un cuarto entero. Sin embargo, como se suele decir, la realidad es más creativa que la ficción: nadie vio que el futuro no estaba en lo grande sino en lo pequeño, y que el poder no sería de quien tuviera los aparatos más voluminosos sino de quien dominara la mayor cantidad de datos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 May, 2020 01:25 a.m.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pablo Nardi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.infobae.com/def/desarrollo/2020/05/30/big-data-y-pandemias-el-punto-de-cruce-entre-tecnologia-y-politica-sanitaria/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twitter: se detectó una grave falla que podría comprometer la privacidad de los usuarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twitter informó este fin de semana a los usuarios que detectó una grave vulnerabilidad en la versión para Android que ya fue solucionada por medio de la última actualización. Por eso la empresa insta a que se descargue la nueva versión de la app.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 Dic, 2019 08:31 a.m.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.infobae.com/america/tecno/2019/12/23/twitter-se-detecto-una-grave-falla-que-podria-comprometer-la-privacidad-de-los-usuarios/</t>
   </si>
 </sst>
 </file>
@@ -708,9 +771,7 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
+      <c r="D3"/>
       <c r="E3" t="s">
         <v>13</v>
       </c>
@@ -725,7 +786,9 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4"/>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
@@ -773,296 +836,394 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
         <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
         <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8"/>
-      <c r="E8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>37</v>
-      </c>
-      <c r="D9"/>
-      <c r="E9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
         <v>45</v>
-      </c>
-      <c r="D11"/>
-      <c r="E11" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
         <v>47</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>48</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12"/>
+      <c r="E12" t="s">
         <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
         <v>52</v>
-      </c>
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D14"/>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
         <v>61</v>
-      </c>
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15"/>
-      <c r="E15" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16" t="s">
         <v>65</v>
-      </c>
-      <c r="B16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" t="s">
         <v>78</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
         <v>81</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>82</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>83</v>
-      </c>
-      <c r="E20" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
         <v>85</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>86</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" t="s">
         <v>87</v>
-      </c>
-      <c r="D21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" t="s">
         <v>90</v>
-      </c>
-      <c r="B22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" t="s">
-        <v>92</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s">
         <v>94</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
         <v>95</v>
-      </c>
-      <c r="C23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23"/>
-      <c r="E23" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" t="s">
         <v>98</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24"/>
+      <c r="E24" t="s">
         <v>99</v>
-      </c>
-      <c r="C24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" t="s">
         <v>106</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Clase_3_ws/noticias_scraping_infobae.xlsx
+++ b/Clase_3_ws/noticias_scraping_infobae.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t xml:space="preserve">titulo</t>
   </si>
@@ -44,6 +44,18 @@
     <t xml:space="preserve">https://www.infobae.com/america/agencias/2024/07/05/cloudflare-lanza-una-funcion-para-impedir-que-los-bots-de-empresas-de-ia-ejecuten-web-scraping-en-webs-de-sus-clientes/</t>
   </si>
   <si>
+    <t xml:space="preserve">Reddit bloqueará el acceso de bots a sus datos públicos para evitar el 'web scraping' para el entrenamiento de IA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El foro Reddit ha anunciado que actualizará su Protocolo de Exclusión de Robots (archivo robots.txt) para bloquear el acceso de 'bots' automarizados a sus datos públicos y evitar así el llamado raspado de datos o 'web scrapping', usando en el entrenamiento de la inteligencia artificial (IA). El raspado de datos o 'web scraping' es un proceso de recopilación de contenidos de páginas web mediante un 'software' que extrae el contenido HTML de estos sitios para filtrar la información y almacenarla, lo que se compara con el proceso automático de copiado y pegado. Si bien se trata de una práctica habitual y legal, va en contra de los términos de uso de algunas páginas web, ya que se puede ejecutar con fines malintencionados, tal y como han comprobado el desarrollador Robb Knight y Wired recientemente. Ambos han descubierto que la desarrolladora de IA Perplexity había ignorado el Protocolo de Exclusión de Robots de ciertos sitios web y ejecutado 'web scraping' con él para entrenar sus modelos de inteligencia artificial. Para evitar este tipo de situaciones, Reddit ha anunciado que en las próximas semanas actualizará su Protocolo de exclusión de robots, que "brinda instrucciones de alto nivel" sobre cómo permite y no permite que agentes terceros rastreen sus directorios. Una vez haya actualizado el archivo robots.txt, continuará bloqueando el acceso de 'bots' y rastreadores desconocidos en reddit.com y limitará su velocidad en la navegación. No obstante, mantendrá el acceso abierto a su contenido para investigadores y organizaciones como Internet Archive, a quienes considera "actores de buena fe" que acceden a sus contenidos "para uso no comercial". Por el contrario, la plataforma solicita que se pida permiso, y se pague una tarifa, cuando el acceso a los datos y herramientas tiene fines comerciales, lo que incluye el entrenamiento de modelos de IA. Con ello ha indicado que cualquiera que acceda a su web debe cumplir con sus políticas de uso, "incluidas las vigentes para proteger a los redditors", y ha puesto a disposición de los interesados una guía para acceder a sus contenidos de forma legítima. Conviene recordar, no obstante, que Reddit ya anunció a principios de mayo una nueva política de contenido público, surgida a raíz de constatar que "cada vez más entidades comerciales utilizan el acceso no autorizado o hacen un mal uso del acceso autorizado para recopilar datos públicos", incluidos los de la plataforma. También presentó un nuevo 'subreddit' para investigadores, con el que demostró su intención por preservar el acceso público al contenido de la plataforma para "aquellos que creen en el uso responsable y no comercial de los datos públicos".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 Jun, 2024 07:17 a.m. EST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.infobae.com/america/agencias/2024/06/27/reddit-bloqueara-el-acceso-de-bots-a-sus-datos-publicos-para-evitar-el-web-scraping-para-el-entrenamiento-de-ia/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cloudflare bloquea rastreadores de IA por defecto y propone cobrar por el acceso a contenido</t>
   </si>
   <si>
@@ -56,18 +68,6 @@
     <t xml:space="preserve">https://www.infobae.com/tecno/2025/07/02/cloudflare-bloquea-rastreadores-de-ia-por-defecto-y-propone-cobrar-por-el-acceso-a-contenido/</t>
   </si>
   <si>
-    <t xml:space="preserve">Reddit bloqueará el acceso de bots a sus datos públicos para evitar el 'web scraping' para el entrenamiento de IA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El foro Reddit ha anunciado que actualizará su Protocolo de Exclusión de Robots (archivo robots.txt) para bloquear el acceso de 'bots' automarizados a sus datos públicos y evitar así el llamado raspado de datos o 'web scrapping', usando en el entrenamiento de la inteligencia artificial (IA). El raspado de datos o 'web scraping' es un proceso de recopilación de contenidos de páginas web mediante un 'software' que extrae el contenido HTML de estos sitios para filtrar la información y almacenarla, lo que se compara con el proceso automático de copiado y pegado. Si bien se trata de una práctica habitual y legal, va en contra de los términos de uso de algunas páginas web, ya que se puede ejecutar con fines malintencionados, tal y como han comprobado el desarrollador Robb Knight y Wired recientemente. Ambos han descubierto que la desarrolladora de IA Perplexity había ignorado el Protocolo de Exclusión de Robots de ciertos sitios web y ejecutado 'web scraping' con él para entrenar sus modelos de inteligencia artificial. Para evitar este tipo de situaciones, Reddit ha anunciado que en las próximas semanas actualizará su Protocolo de exclusión de robots, que "brinda instrucciones de alto nivel" sobre cómo permite y no permite que agentes terceros rastreen sus directorios. Una vez haya actualizado el archivo robots.txt, continuará bloqueando el acceso de 'bots' y rastreadores desconocidos en reddit.com y limitará su velocidad en la navegación. No obstante, mantendrá el acceso abierto a su contenido para investigadores y organizaciones como Internet Archive, a quienes considera "actores de buena fe" que acceden a sus contenidos "para uso no comercial". Por el contrario, la plataforma solicita que se pida permiso, y se pague una tarifa, cuando el acceso a los datos y herramientas tiene fines comerciales, lo que incluye el entrenamiento de modelos de IA. Con ello ha indicado que cualquiera que acceda a su web debe cumplir con sus políticas de uso, "incluidas las vigentes para proteger a los redditors", y ha puesto a disposición de los interesados una guía para acceder a sus contenidos de forma legítima. Conviene recordar, no obstante, que Reddit ya anunció a principios de mayo una nueva política de contenido público, surgida a raíz de constatar que "cada vez más entidades comerciales utilizan el acceso no autorizado o hacen un mal uso del acceso autorizado para recopilar datos públicos", incluidos los de la plataforma. También presentó un nuevo 'subreddit' para investigadores, con el que demostró su intención por preservar el acceso público al contenido de la plataforma para "aquellos que creen en el uso responsable y no comercial de los datos públicos".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27 Jun, 2024 07:17 a.m. EST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.infobae.com/america/agencias/2024/06/27/reddit-bloqueara-el-acceso-de-bots-a-sus-datos-publicos-para-evitar-el-web-scraping-para-el-entrenamiento-de-ia/</t>
-  </si>
-  <si>
     <t xml:space="preserve">Se mantuvo la desaceleración de precios de alimentos en la tercera semana de julio</t>
   </si>
   <si>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">Italia pide información a 'DeepSeek' por su "posible riesgo para millones de personas"</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
+    <t xml:space="preserve">Roma, 29 ene (EFE).- El Garante de la Privacidad de Italia ha enviado una petición a DeepSeek, el "ChatGPT chino", para conocer "qué tipo de información se utiliza para entrenar el sistema de inteligencia artificial", dado "el posible alto riesgo para los datos de millones de personas".La Autoridad italiana ha dado 20 días de plazo a Hangzhou DeepSeek Artificial Intelligence y Beijing DeepSeek Artificial Intelligence, las empresas que prestan el servicio de chatbot DeepSeek, tanto en la web como en la aplicación, reveló el organismo."El Garante, considerando el posible alto riesgo para los datos de millones de personas en Italia, pidió a las dos empresas y a sus filiales que confirmaran qué datos personales se recogen, de qué fuentes, con qué fines, cuál es la base jurídica del tratamiento y si se almacenan en servidores ubicados en China", se explica en una nota.También preguntó a las empresas "qué tipo de información se utiliza para entrenar el sistema de inteligencia artificial y, si los datos personales se recogen mediante actividades de 'web scraping', que aclaren cómo se ha informado o se informa a los usuarios registrados y no registrados del servicio sobre el tratamiento de sus datos".DeepSeek sigue en el punto de mira, después de que la Casa Blanca afirmara que "investiga" sus implicaciones de seguridad y en la misma China el gigante Alibaba lanzara un modelo de inteligencia artificial que asegura superar "casi totalmente" al de la competencia.Desde el lanzamiento del modelo R1 el pasado 20 de enero, la aplicación china, caracterizada por su código abierto y bajos costes de desarrollo, ha liderado las listas de descargas, mientras hoy continúa sufriendo un "apagón parcial" tras denunciar ciberataques en los últimos días, sin desvelar su origen ni naturaleza.Su irrupción ha revolucionado a los internautas y ha abierto las puertas a un posible cambio de las reglas del sector tecnológico, aunque también ha sido objeto de sospechas y críticas, sobre todo desde Estados Unidos. EFECompartir nota:Temas RelacionadosItaliaDeepSeekGarante de la PrivacidadHangzhou DeepSeek Artificial IntelligenceBeijing DeepSeek Artificial IntelligenceRomaInteligencia artificialRiesgo de datosChatbotAlibabaEFE</t>
   </si>
   <si>
     <t xml:space="preserve">29 Abr, 2025 04:17 p.m. EST</t>
@@ -104,30 +104,33 @@
     <t xml:space="preserve">https://www.infobae.com/america/agencias/2025/01/29/italia-pide-informacion-a-deepseek-por-su-posible-riesgo-para-millones-de-personas/</t>
   </si>
   <si>
+    <t xml:space="preserve">Estos sitios web que usas a diario podrían robar tus datos y vaciar tus cuentas, dice el FBI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La oficina del FBI en Denver emitió una advertencia pública sobre una nueva modalidad de estafa digital que utiliza sitios web de conversión de archivos para distribuir malware, instalar ransomware y robar información personal sensible. Según el comunicado difundido el 7 de marzo de 2025, los ciberdelincuentes están explotando herramientas en apariencia legítimas que ofrecen servicios gratuitos como convertir archivos .pdf, .doc, .jpg, .mp3 o .mp4, combinarlos o descargarlos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 Mar, 2025 09:52 a.m. EST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniela Mérida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.infobae.com/estados-unidos/2025/03/23/estos-sitios-web-que-usas-a-diario-podrian-robar-tus-datos-y-vaciar-tus-cuentas-dice-el-fbi/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Italia bloquea la aplicación china 'DeepSeek' por falta de información</t>
   </si>
   <si>
+    <t xml:space="preserve">Roma, 30 ene (EFE).- El Garante para la Protección de los Datos Personales de Italia ha ordenado este jueves el bloqueo "de forma urgente y efecto inmediato" de la aplicación china de inteligencia artificial 'DeepSeek' al no haber recibido la información solicitada.El ente público informó en un comunicado del bloqueo de 'DeepSeek', limitando el uso de los datos de los usuarios italianos, y además ha abierto una investigación al respecto.El día anterior Italia había pedido a los gestores del sistema, Hangzhou DeepSeek Artificial Intelligence y Beijing DeepSeek Artificial Intelligence, que explicaran qué tipo de información usa para entrenarlo y la respuesta ha sido "del todo insuficiente". "La medida de limitación, adoptada para proteger los datos de los usuarios italianos, sigue a la comunicación recibida hoy de parte de dichas empresas, cuyo contenido ha sido considerado del todo insuficiente", se lee en una nota del Garante.El organismo explicó que los gestores del 'chatbot' chino han declarado que "no operan en Italia y que, por ello, no se les puede aplicar la normativa europea".Precisamente desde ayer la aplicación había mostrado problemas en Italia y había desaparecido de los catálogos de las principales plataformas de descarga.Las autoridades italianas habían dado a los desarrolladores de la aplicación el plazo de 20 días para aclarar determinados aspectos de su uso, pero finalmente ha basado solo un día para su bloqueo.En concreto querían saber "qué datos personales se recogen, de qué fuentes, con qué fines, cuál es la base jurídica de su tratamiento y si se almacenan en servidores ubicados en China", según informaba el Garante en una nota.También preguntó a las empresas "qué tipo de información se utiliza para entrenar el sistema de inteligencia artificial y, si los datos personales se recogen mediante actividades de 'web scraping' (raspado de web), que aclaren cómo se ha informado o se informa a los usuarios registrados y no registrados del servicio sobre el tratamiento de sus datos".'DeepSeek' sigue en el punto de mira, después de que la Casa Blanca afirmara que "investiga" sus implicaciones de seguridad y en la misma China el gigante Alibaba lanzara un modelo de inteligencia artificial que asegura superar "casi totalmente" al de la competencia.Desde el lanzamiento del modelo R1 el pasado 20 de enero, la 'app' china, caracterizada por su código abierto y bajos costes de desarrollo, ha liderado las listas de descargas, aunque ha denunciado un "apagón parcial" por presuntos ciberataques en los últimos días, sin desvelar su origen ni naturaleza. EFECompartir nota:Temas RelacionadosItaliaDeepSeekGarante para la Protección de los Datos PersonalesHangzhou DeepSeek Artificial IntelligenceBeijing DeepSeek Artificial IntelligenceRomaInteligencia ArtificialProtección de DatosAlibabaCiberataquesEFE</t>
+  </si>
+  <si>
     <t xml:space="preserve">01 May, 2025 08:34 a.m. EST</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.infobae.com/america/agencias/2025/01/30/italia-bloquea-la-aplicacion-china-deepseek-por-falta-de-informacion/</t>
   </si>
   <si>
-    <t xml:space="preserve">Estos sitios web que usas a diario podrían robar tus datos y vaciar tus cuentas, dice el FBI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La oficina del FBI en Denver emitió una advertencia pública sobre una nueva modalidad de estafa digital que utiliza sitios web de conversión de archivos para distribuir malware, instalar ransomware y robar información personal sensible. Según el comunicado difundido el 7 de marzo de 2025, los ciberdelincuentes están explotando herramientas en apariencia legítimas que ofrecen servicios gratuitos como convertir archivos .pdf, .doc, .jpg, .mp3 o .mp4, combinarlos o descargarlos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 Mar, 2025 09:52 a.m. EST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniela Mérida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.infobae.com/estados-unidos/2025/03/23/estos-sitios-web-que-usas-a-diario-podrian-robar-tus-datos-y-vaciar-tus-cuentas-dice-el-fbi/</t>
-  </si>
-  <si>
     <t xml:space="preserve">Los datos de 235 millones de usuarios de YouTube, Instagram y Tik Tok quedaron expuestos en la web</t>
   </si>
   <si>
@@ -167,6 +170,9 @@
     <t xml:space="preserve">Irlanda multa a Meta con 265 millones de euros por error protección de datos</t>
   </si>
   <si>
+    <t xml:space="preserve">Dublín, 28 nov. La Comisión de Protección de Datos de Irlanda (DPC), principal regulador en el ámbito de la protección de datos en la Unión Europea, informó este lunes de que ha impuesto a Meta, matriz de Facebook, una multa de 265 millones de euros.La compañía estadounidense, que tiene su base de operaciones europeas en Dublín, ha sido sancionada por un fallo en sus sistemas de seguridad que provocó la filtración de datos personales de millones de usuarios entre 2018 y 2019.La DPC inició esta investigación en abril del pasado año para determinar cómo llegaron hasta un foro de internet sobre piratería informática nombres, números de teléfono y direcciones de email de 533 millones de clientes.Entonces, Facebook alegó que había reparado esa "vulnerabilidad" en 2019 y que la citada información, parte de la cual ya había aparecido en el ciberespacio "hace varios años", no fue obtenida por jaqueo, sino a través del llamado "scraping".El "scraping" es una técnica que permite obtener datos a partir de la lectura de un sitio web gracias a un software automatizado, tras lo cual se puede distribuir esa información en foros online.No obstante, el regulador irlandés determinó hoy que Meta violó el artículo 5 de la Regulación General de Protección de Datos (GDPR, por sus siglas en inglés) de la UE."Dado que este conjunto de datos eran tan grande, que ya había habido precedentes de 'scraping' en la plataforma y que los problemas se podían haber identificado antes, finalmente imponemos una multa significativa", declaró en un comunicado la responsable de la DPC, Helen Dixon.Asimismo, recordó que los "riesgos" para los individuos afectados son "considerables", pues les exponen a "estafas, spam, fishing" y "pierden el control de sus datos"."Hemos hecho cambios en nuestros sistemas durante el tiempo en cuestión, incluyendo la eliminación de la capacidad para hacer 'scraping' en nuestras funciones", señaló Meta en una nota.El pasado septiembre, la tecnológica apeló ante el Tribunal Superior irlandés una multa de 405 millones de euros impuesta por la DPC a la red social Instagram, integrada en Meta, por su gestión de datos de menores.Se trata de la sanción económica más alta impuesta por la comisión. EFE ja/vg/siCompartir nota:Temas RelacionadosEFE</t>
+  </si>
+  <si>
     <t xml:space="preserve">28 Nov, 2022 09:31 a.m. EST</t>
   </si>
   <si>
@@ -356,24 +362,27 @@
     <t xml:space="preserve">‘No a las máquinas que cosechan contenido’: estallan revueltas de datos contra la IA</t>
   </si>
   <si>
+    <t xml:space="preserve">Durante más de 20 años, Kit Loffstadt ha escrito historias de fanficción que exploran universos alternativos para los héroes de “La guerra de las galaxias” y los villanos de “Buffy, la cazavampiros”, y comparte sus historias de manera gratuita en línea.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 Jul, 2023 01:25 p.m. EST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheera Frenkel and Stuart A. Thompson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.infobae.com/america/the-new-york-times/2023/07/24/no-a-las-maquinas-que-cosechan-contenido-estallan-revueltas-de-datos-contra-la-ia/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Especial para Infobae de The New York Times.Durante más de 20 años, Kit Loffstadt ha escrito historias de fanficción que exploran universos alternativos para los héroes de “La guerra de las galaxias” y los villanos de “Buffy, la cazavampiros”, y comparte sus historias de manera gratuita en línea. Pero en mayo, Loffstadt dejó de publicar sus creaciones después de enterarse de que una empresa de datos las había copiado e introducido en la tecnología de inteligencia artificial que subyace a ChatGPT, un chatbot viral. Consternada, escondió sus escritos en una cuenta privada. El mes pasado, Loffstadt también ayudó a organizar un acto de rebelión contra los sistemas de inteligencia artificial. Junto con decenas de otros escritores de fanficción, publicó una avalancha de historias irreverentes en línea con el objetivo de abrumar y confundir a los servicios de recopilación de datos que usan el trabajo de los escritores para entrenar a la tecnología de IA. “Cada uno tiene que hacer todo lo posible para demostrarles que las máquinas no pueden cosechar a su antojo los resultados de nuestra creatividad”, afirmó Loffstadt, quien es una actriz de doblaje de 42 años de Yorkshire del Sur en el Reino Unido. Los escritores de fanficción son solo uno de los grupos que están organizando revueltas contra los sistemas de inteligencia artificial ahora que la fiebre por esta tecnología se ha apoderado de Silicon Valley y del mundo. En los últimos meses, empresas de redes sociales como Reddit y Twitter, organizaciones de noticias como The New York Times y NBC News, autores como Paul Tremblay y la actriz Sarah Silverman se han pronunciado en contra de que la IA absorba sus datos sin permiso. Las protestas se han producido de diversas maneras. Los escritores y artistas están bloqueando sus archivos para proteger su trabajo o están boicoteando ciertos sitios web que publican contenido generado por IA, mientras que empresas como Reddit quieren cobrar por el acceso a sus datos. Este año, se han presentado al menos diez demandas contra empresas de inteligencia artificial, en las que se les acusa de entrenar a sus sistemas con el trabajo creativo de artistas sin consentimiento. La semana pasada, Silverman y los autores Christopher Golden y Richard Kadrey demandaron a OpenAI, el creador de ChatGPT, y a otros por el uso que hace la inteligencia artificial de su trabajo. Al centro de las rebeliones existe una nueva comprensión de que la información en línea —historias, obras de arte, artículos de noticias, publicaciones en foros de mensajes y fotos— puede tener un valor significativo sin explotar. La nueva ola de inteligencia artificial, conocida como “IA generativa” por el texto, las imágenes y otro contenido que puede generar, se basa en sistemas complejos como los modelos grandes de lenguaje, que son capaces de producir una prosa similar a la humana. Estos modelos están entrenados con reservas de todo tipo de datos para poder responder a las preguntas de las personas, imitar estilos de escritura o producir comedia y poesía. Eso ha hecho que las empresas de tecnología busquen más datos para alimentar sus sistemas de IA. En esencia, Google, Meta y OpenAI han utilizado información de todos los rincones del internet, incluidas grandes bases de datos de fanficción, conjuntos de artículos de noticias y colecciones de libros, muchos de los cuales estaban disponibles en línea de manera gratuita. En la jerga de la industria tecnológica, esto se conoce como “raspado web”, o “web scraping”. Es poco probable que las protestas de datos tengan mucho impacto a largo plazo. Los gigantes tecnológicos con mucho dinero como Google y Microsoft ya tienen acceso a montañas de información patentada y tienen los recursos para obtener más licencias. Pero a medida que la era del contenido “fácil de raspar” llega a su fin, es posible que las nuevas empresas más pequeñas de IA y las organizaciones sin fines de lucro que esperaban competir con las grandes empresas no puedan obtener suficiente contenido para entrenar a sus sistemas. En un comunicado, OpenAI declaró que ChatGPT fue entrenado con “contenido obtenido a partir de licencias, contenido disponible para todo público y contenido creado por entrenadores humanos de IA”. Y agregó: “Respetamos los derechos de los creadores y autores, y esperamos continuar trabajando con ellos para proteger sus intereses”. Google dijo en un comunicado que estaba en conversaciones sobre cómo los editores podrían administrar su contenido en el futuro. “Creemos que todos se benefician de un ecosistema de contenido vibrante”, afirmó la compañía. Microsoft no respondió a nuestra solicitud de comentarios. Las revueltas de datos estallaron el año pasado después de que ChatGPT se convirtiera en un fenómeno mundial. En noviembre, un grupo de programadores presentó una propuesta de demanda colectiva contra Microsoft y OpenAI, con el argumento de que las empresas habían violado sus derechos de autor después de que se usó su código para capacitar a un asistente de programación impulsado por inteligencia artificial. En enero, Getty Images, que proporciona fotos y videos de archivo, demandó a Stability AI, una empresa de inteligencia artificial que crea imágenes a partir de descripciones de texto, alegando que la empresa emergente había usado fotos protegidas con derechos de autor para entrenar a sus sistemas. Luego, en junio, Clarkson, un bufete de abogados en Los Ángeles, presentó una propuesta de demanda colectiva de 151 páginas contra OpenAI y Microsoft, en la que describe cómo OpenAI recopiló datos de menores y asevera que el raspado web viola la ley de derechos de autor y constituye un “robo”. El martes, la firma presentó una demanda similar contra Google. “La rebelión de datos que estamos viendo en todo el país es la manera en que la sociedad rechaza esta idea de que las grandes empresas de tecnología simplemente tienen derecho a tomar toda la información de cualquier fuente y hacerla propia”, sostuvo Ryan Clarkson, el fundador de Clarkson. Eric Goldman, profesor de la Facultad de Derecho de la Universidad de Santa Clara, dijo que los argumentos de la demanda eran amplios y que era poco probable que el tribunal los aceptara. Pero advirtió que la ola de litigios apenas comienza, ya que se avecinan una “segunda y tercera ola” que definirán el futuro de la IA. Las empresas más grandes también están rechazando el raspado web. En abril, Reddit declaró que quería cobrar por el acceso a su interfaz de programación de aplicaciones, el método con el cual terceras partes pueden descargar y analizar la inmensa base de datos de conversaciones personales en esa red social. El director ejecutivo de Reddit, Steve Huffman, dijo en ese momento que su empresa no “necesitaba regalar todo ese valor a algunas de las empresas más grandes del mundo”. Ese mismo mes, Stack Overflow, un sitio de preguntas y respuestas para programadores de computadoras, comunicó que también les pedirá a las empresas de inteligencia artificial que paguen por los datos. El sitio tiene casi 60 millones de preguntas y respuestas. Su decisión se dio a conocer primero en la publicación Wired. Las organizaciones de noticias también se resisten a los sistemas de IA. En junio, en un memorando interno sobre el uso de la inteligencia artificial generativa, el Times dijo que las empresas de IA deberían “respetar nuestra propiedad intelectual”. Un portavoz del Times se negó a dar más detalles. Para los artistas y escritores particulares, la lucha contra los sistemas de inteligencia artificial ha significado repensar dónde publican. Nicholas Kole, un ilustrador de 35 años en Vancouver, Columbia Británica, se sintió alarmado al ver cómo un sistema de IA podía replicar su estilo artístico distintivo y sospechaba que la tecnología había extraído su trabajo por medio del raspado web. Planea seguir publicando sus creaciones en Instagram, Twitter y otros sitios de redes sociales para atraer clientes, pero dejó de publicar en sitios como ArtStation, donde se sube contenido generado por IA junto con contenido hecho por humanos. “Simplemente se siente como un robo sin sentido de mi trabajo y el de otros artistas”, dijo Kole. “Me hace sentir un temor existencial en el estómago”. Steve Huffman, director ejecutivo de Reddit, en la oficina de la empresa en Nueva York, el 23 de mayo de 2023. (Amy Lombard/The New York Times). Sarah Silverman en Nueva York, el 14 de abril de 2022. (Mark Sommerfeld/The New York Times).Compartir nota:Temas RelacionadosNew York Times</t>
+  </si>
+  <si>
     <t xml:space="preserve">16 Jul, 2023 03:30 p.m. EST</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.infobae.com/thenewyorktimes/2023/07/16/no-a-las-maquinas-que-cosechan-contenido-estallan-revueltas-de-datos-contra-la-ia/</t>
   </si>
   <si>
-    <t xml:space="preserve">Durante más de 20 años, Kit Loffstadt ha escrito historias de fanficción que exploran universos alternativos para los héroes de “La guerra de las galaxias” y los villanos de “Buffy, la cazavampiros”, y comparte sus historias de manera gratuita en línea.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 Jul, 2023 01:25 p.m. EST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheera Frenkel and Stuart A. Thompson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.infobae.com/america/the-new-york-times/2023/07/24/no-a-las-maquinas-que-cosechan-contenido-estallan-revueltas-de-datos-contra-la-ia/</t>
-  </si>
-  <si>
     <t xml:space="preserve">Venta masiva de datos privados de Discord: Más de 627 mil millones de usuarios afectados</t>
   </si>
   <si>
@@ -396,6 +405,72 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.infobae.com/tecno/2024/03/20/estas-son-las-cuatro-tecnicas-mas-usadas-para-robar-claves-bancarias/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿No puede ver tuits en México? Elon Musk restringió límite de visualizaciones en la red social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El pasado viernes, la red social Twitter presentó fallas en México y otras partes del mundo. Y es que, algunos usuarios, comenzaron a explicar que el problema había surgido desde la madrugada en la versión de escritorio de la plataforma.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01 Jul, 2023 03:36 p.m. EST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miguel Flores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.infobae.com/mexico/2023/07/01/no-puede-ver-tuits-en-mexico-elon-musk-restringio-limite-de-visualizaciones-en-la-red-social/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se filtró una base de datos de casi 300 millones de usuarios de Facebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Una base de datos que contiene más de 267 millones de ID de usuarios de Facebook, números de teléfono y nombres quedó expuesta en la web. El dato fue revelado por el sitio especializado Comparitech en base a una investigación realizada por el experto en seguridad Bob Diachenko.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 Dic, 2019 08:03 a.m. EST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.infobae.com/america/tecno/2019/12/20/se-filtro-una-base-de-datos-de-casi-300-millones-de-usuarios-de-facebook/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cómo funciona la insólita estafa virtual que comienza con un falso e-mail de Kristalina Georgieva, la jefa del FMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Una estafa en la que se invoca en forma engañosa a la jefa del Fondo Monetario Internacional (FMI), Kristalina Georgieva, ha llegado a correos electrónicos de personas en todo el mundo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 Jun, 2022 04:14 p.m. EST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.infobae.com/economia/2022/06/23/como-funciona-la-insolita-estafa-virtual-que-comienza-con-un-falso-e-mail-de-kristalina-georgieva-la-jefa-del-fmi/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big data y pandemias: el punto de cruce entre tecnología y política sanitaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las mejores novelas futuristas del siglo pasado imaginaron un porvenir metálico, lleno de pantallas y altas velocidades de desplazamiento. Imaginaban armas de destrucción masiva, naves espaciales, computadoras que ocupaban un cuarto entero. Sin embargo, como se suele decir, la realidad es más creativa que la ficción: nadie vio que el futuro no estaba en lo grande sino en lo pequeño, y que el poder no sería de quien tuviera los aparatos más voluminosos sino de quien dominara la mayor cantidad de datos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 May, 2020 01:25 a.m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pablo Nardi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.infobae.com/def/desarrollo/2020/05/30/big-data-y-pandemias-el-punto-de-cruce-entre-tecnologia-y-politica-sanitaria/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twitter: se detectó una grave falla que podría comprometer la privacidad de los usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twitter informó este fin de semana a los usuarios que detectó una grave vulnerabilidad en la versión para Android que ya fue solucionada por medio de la última actualización. Por eso la empresa insta a que se descargue la nueva versión de la app.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 Dic, 2019 08:31 a.m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.infobae.com/america/tecno/2019/12/23/twitter-se-detecto-una-grave-falla-que-podria-comprometer-la-privacidad-de-los-usuarios/</t>
   </si>
 </sst>
 </file>
@@ -771,7 +846,9 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
@@ -786,9 +863,7 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
+      <c r="D4"/>
       <c r="E4" t="s">
         <v>17</v>
       </c>
@@ -847,383 +922,462 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="E28" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D29" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D30"/>
       <c r="E30" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D31"/>
       <c r="E31" t="s">
-        <v>127</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
